--- a/media/customuser.xlsx
+++ b/media/customuser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProjects\ascsurevey\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F9261C-3C8E-4AE3-8F4E-0D6DE1EBC0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF491C5-EE57-45BB-9385-6B82813C6CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20400" yWindow="1395" windowWidth="21330" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20235" yWindow="1320" windowWidth="18945" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -105,56 +105,6 @@
     <rPh sb="0" eb="3">
       <t>コウシンビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第１開発部</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>カイハツブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名古屋</t>
-    <rPh sb="0" eb="3">
-      <t>ナゴヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>副部長</t>
-    <rPh sb="0" eb="3">
-      <t>フクブチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ASC138</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>川本</t>
-    <rPh sb="0" eb="2">
-      <t>カワモト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>礼美</t>
-    <rPh sb="0" eb="2">
-      <t>アヤミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kawamoto@agesystem.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>admin</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -162,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,14 +125,6 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -250,21 +192,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,11 +482,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F021EB-F943-4B13-82E0-F873CAF98683}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -559,8 +496,8 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.69921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -606,148 +543,25 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="2">
-        <v>45111.709027777775</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="2">
-        <v>45111.709027777775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{642AE55C-782C-42DB-9154-63F0F2AFBD32}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>